--- a/Scenarioer/Scenario data/Lav Scenario/Analyse dokument lav scenario v2.xlsx
+++ b/Scenarioer/Scenario data/Lav Scenario/Analyse dokument lav scenario v2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\There\PycharmProjects\ABM---hospital\Scenarioer\Scenario data\Lav Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843BB74-EFB8-442E-8C53-76EF50257770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542FCDB6-9144-4DF5-92F7-B172F9951F20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
     <sheet name="Ark2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Ark3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="24" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="56">
   <si>
     <t>Beredskapsledelsen</t>
   </si>
@@ -195,6 +196,18 @@
   </si>
   <si>
     <t>Standardavvik av antall_kompetanse_under_2_til_1</t>
+  </si>
+  <si>
+    <t>Gjennomsnitt av kummulativt_antall_intensiv</t>
+  </si>
+  <si>
+    <t>Gjennomsnitt av dÃ¸de</t>
+  </si>
+  <si>
+    <t>Maks av dÃ¸de2</t>
+  </si>
+  <si>
+    <t>Min av dÃ¸de3</t>
   </si>
 </sst>
 </file>
@@ -11961,7 +11974,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6CAE0CC9-03E0-40A2-864B-3DC3A5B41124}" name="Pivottabell8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6CAE0CC9-03E0-40A2-864B-3DC3A5B41124}" name="Pivottabell8" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" showAll="0">
@@ -12064,7 +12077,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85C6B5CE-EF5C-49FF-82C2-EFC6C434DA4F}" name="Pivottabell9" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85C6B5CE-EF5C-49FF-82C2-EFC6C434DA4F}" name="Pivottabell9" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:N8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" showAll="0">
@@ -12181,6 +12194,76 @@
     <dataField name="Standardavvik av antall_kompetanse_over_3" fld="24" subtotal="stdDev" baseField="0" baseItem="0"/>
     <dataField name="Standardavvik av antall_kompetanse_under_3_til_2" fld="25" subtotal="stdDev" baseField="0" baseItem="0"/>
     <dataField name="Standardavvik av antall_kompetanse_under_2_til_1" fld="26" subtotal="stdDev" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DA2EAA4-DC68-4C2E-A111-8BA0EEAD47A6}" name="Pivottabell11" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Gjennomsnitt av kummulativt_antall_intensiv" fld="22" subtotal="average" baseField="24" baseItem="561528864"/>
+    <dataField name="Gjennomsnitt av dÃ¸de" fld="20" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Maks av dÃ¸de2" fld="20" subtotal="max" baseField="0" baseItem="1"/>
+    <dataField name="Min av dÃ¸de3" fld="20" subtotal="min" baseField="0" baseItem="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12495,8 +12578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268558D2-59E0-47EA-9296-6BDAE4C6B3B4}">
   <dimension ref="A3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12948,11 +13031,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D8CF55-656F-4E33-A315-CA156D51252E}">
+  <dimension ref="A3:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>575.40499999999997</v>
+      </c>
+      <c r="B4" s="3">
+        <v>19.25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA401"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
